--- a/документы/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/документы/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -5,22 +5,24 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khsid\OneDrive\Рабочий стол\LoadRunner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khsid\OneDrive\Рабочий стол\LoadRunner\документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6698344-2488-4A0E-9C26-302A2A6BC818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C7EFD-9A51-4E7E-9402-8BEEEB937720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
     <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
     <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
-    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId4"/>
+    <sheet name="SummaryReportMax" sheetId="6" r:id="rId4"/>
+    <sheet name="SummaryReportConfirmMax" sheetId="7" r:id="rId5"/>
+    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -185,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="113">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -515,6 +517,15 @@
   </si>
   <si>
     <t xml:space="preserve">Название транзакции </t>
+  </si>
+  <si>
+    <t>Фактическая интенсивность в тесте поиска максимума</t>
+  </si>
+  <si>
+    <t>vuser_init_Transaction</t>
+  </si>
+  <si>
+    <t>Фактическая интенсивность в тесте подтверждения максимума</t>
   </si>
 </sst>
 </file>
@@ -525,12 +536,28 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1318,113 +1345,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1437,18 +1484,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="3" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1463,28 +1510,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1494,6 +1541,16 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1503,48 +1560,64 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="85">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="47" xr:uid="{EE389E7D-37DE-4F18-BE11-C9C87317FE3D}"/>
+    <cellStyle name="20% — акцент1 3" xfId="67" xr:uid="{CD715C87-92D5-4F0E-8667-95CEF3AC4A5D}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="50" xr:uid="{D2BB8308-E8B6-4ADB-A5AF-8CB9D3178FBB}"/>
+    <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{3B28AA8C-9DDB-4992-8B1A-B48E36C99E0C}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="53" xr:uid="{F65EA5CA-4607-4BD7-95D6-D4E9DBC2C376}"/>
+    <cellStyle name="20% — акцент3 3" xfId="73" xr:uid="{B56BFAA8-359D-402E-A22F-982EFB867148}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="56" xr:uid="{F6EDCD46-9F56-4FA6-8B1F-E387DD09A159}"/>
+    <cellStyle name="20% — акцент4 3" xfId="76" xr:uid="{4AC7AF82-E4DE-45BA-A38B-E5F793F9ABC8}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="59" xr:uid="{5285BAD9-CEBC-4F0C-A7CF-23F5FA792525}"/>
+    <cellStyle name="20% — акцент5 3" xfId="79" xr:uid="{3ACB8C29-AB82-4336-BD0C-28B78FA43BA0}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="62" xr:uid="{93F3A778-FB2E-45D0-9F31-9A08420DF654}"/>
+    <cellStyle name="20% — акцент6 3" xfId="82" xr:uid="{B5A83EFE-0F73-4CD8-870B-5BF90DAF7541}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="48" xr:uid="{DB8EE480-0429-4F96-B6A2-0A3260956EC9}"/>
+    <cellStyle name="40% — акцент1 3" xfId="68" xr:uid="{C4D1EC11-BE21-4F44-B1FC-77BAF8BF3A2A}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="51" xr:uid="{E438B7A9-34AA-498D-BCA5-9368D0EC67E1}"/>
+    <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{3121EBEB-37DD-4045-BC0D-B1CA2280BA1F}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="54" xr:uid="{A1CF5DBF-3BF5-459D-8E92-542D8DC890A5}"/>
+    <cellStyle name="40% — акцент3 3" xfId="74" xr:uid="{6D26EBDB-DEC9-4107-B7CA-CD067A979DB4}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="57" xr:uid="{0A9B4FFA-4591-43B5-80EE-42B52A7F92FF}"/>
+    <cellStyle name="40% — акцент4 3" xfId="77" xr:uid="{701F9ECE-4D2F-488A-BBB0-46BE2FA351E2}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="60" xr:uid="{D743F9F2-E2F3-4793-8161-DAC4CC6F077E}"/>
+    <cellStyle name="40% — акцент5 3" xfId="80" xr:uid="{2DDB004C-8AB2-4C3A-BD9E-9871A4CE3E15}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="63" xr:uid="{C80E83ED-E332-499E-A2B3-E053C2095724}"/>
+    <cellStyle name="40% — акцент6 3" xfId="83" xr:uid="{AF75AF60-0386-4874-A7F2-AB2466E78526}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="49" xr:uid="{FA31DE66-99EC-4C44-8470-CDE1A5E2123E}"/>
+    <cellStyle name="60% — акцент1 3" xfId="69" xr:uid="{1D4A89F1-FAEC-4AB5-B400-67EA9FEFD034}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="52" xr:uid="{DC09766C-50B2-46FD-97FE-2E4CC5EEEEDC}"/>
+    <cellStyle name="60% — акцент2 3" xfId="72" xr:uid="{9DFD4C06-7361-4AA6-AC20-D9469B7ECC7E}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="55" xr:uid="{FBCE4DD3-B017-4E02-A7B1-E3987A72137A}"/>
+    <cellStyle name="60% — акцент3 3" xfId="75" xr:uid="{EAC3B40F-2C5A-4D0B-91D4-1384149964E5}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="58" xr:uid="{F902AC91-489A-47C8-8605-F4FBC99EE2B2}"/>
+    <cellStyle name="60% — акцент4 3" xfId="78" xr:uid="{B827FE67-FB3D-43B5-AFB3-D810AAB47932}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="61" xr:uid="{5DC894F8-D469-4533-8DCD-432601D0567C}"/>
+    <cellStyle name="60% — акцент5 3" xfId="81" xr:uid="{A0406BA9-4C8F-4293-A4A7-E6AC7CEED883}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="64" xr:uid="{5673544D-67A1-4978-8E47-66C6907AD76C}"/>
+    <cellStyle name="60% — акцент6 3" xfId="84" xr:uid="{3FA6EC63-22DD-4F64-BBEA-829E84AC20A7}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1566,10 +1639,12 @@
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{DF0B3A2A-4917-452A-B33D-D65B3BDA67E4}"/>
+    <cellStyle name="Обычный 5" xfId="65" xr:uid="{41975053-E8E0-4C2E-B0F5-CC8806C6879E}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Примечание 3" xfId="46" xr:uid="{7868E4B7-A5E4-433F-9290-488453CC264E}"/>
+    <cellStyle name="Примечание 4" xfId="66" xr:uid="{4AC5D938-D1EE-46A3-ABBF-5A6AB3D859C6}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -2291,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,7 +2381,7 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="40.21875" customWidth="1"/>
     <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
@@ -3524,12 +3599,12 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="61"/>
-    </row>
-    <row r="33" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="B32" s="67"/>
+    </row>
+    <row r="33" spans="1:12" ht="108" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>80</v>
       </c>
@@ -3554,8 +3629,20 @@
       <c r="H33" s="34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I33" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>64</v>
       </c>
@@ -3563,14 +3650,14 @@
         <v>520</v>
       </c>
       <c r="C34" s="32">
-        <f t="shared" ref="C34:C45" si="23">GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
         <v>539.11678453822788</v>
       </c>
       <c r="D34" s="33">
-        <f t="shared" ref="D34:D36" si="24">1-B34/C34</f>
+        <f t="shared" ref="D34:D36" si="23">1-B34/C34</f>
         <v>3.545944976393578E-2</v>
       </c>
-      <c r="E34" s="63" t="str">
+      <c r="E34" s="60" t="str">
         <f>VLOOKUP(A34,Соответствие!A:B,2,FALSE)</f>
         <v>open_site</v>
       </c>
@@ -3586,8 +3673,24 @@
         <f>1-F34/G34</f>
         <v>-9.5819935172807291E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="I34" s="60">
+        <f>VLOOKUP(E34,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>722</v>
+      </c>
+      <c r="J34" s="29">
+        <f>1-4*F34/I34</f>
+        <v>4.401136586836718E-3</v>
+      </c>
+      <c r="K34" s="65">
+        <f>VLOOKUP(E34,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>2159</v>
+      </c>
+      <c r="L34" s="29">
+        <f>1-4*B34/K34</f>
+        <v>3.6591014358499319E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>0</v>
       </c>
@@ -3595,14 +3698,14 @@
         <v>422</v>
       </c>
       <c r="C35" s="32">
+        <f t="shared" ref="C35:C45" si="24">GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)*3</f>
+        <v>444.3799424329647</v>
+      </c>
+      <c r="D35" s="33">
         <f t="shared" si="23"/>
-        <v>444.3799424329647</v>
-      </c>
-      <c r="D35" s="33">
-        <f t="shared" si="24"/>
         <v>5.0362179513403049E-2</v>
       </c>
-      <c r="E35" s="63" t="str">
+      <c r="E35" s="60" t="str">
         <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
@@ -3618,8 +3721,24 @@
         <f t="shared" ref="H35:H45" si="26">1-F35/G35</f>
         <v>-1.4566078614074662E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="I35" s="60">
+        <f>VLOOKUP(E35,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>596</v>
+      </c>
+      <c r="J35" s="29">
+        <f t="shared" ref="J35:J45" si="27">1-4*F35/I35</f>
+        <v>5.8614263244637366E-3</v>
+      </c>
+      <c r="K35" s="65">
+        <f>VLOOKUP(E35,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>1776</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" ref="L35:L45" si="28">1-4*B35/K35</f>
+        <v>4.9549549549549599E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>79</v>
       </c>
@@ -3627,14 +3746,14 @@
         <v>305</v>
       </c>
       <c r="C36" s="32">
+        <f t="shared" si="24"/>
+        <v>316.89122062845337</v>
+      </c>
+      <c r="D36" s="33">
         <f t="shared" si="23"/>
-        <v>316.89122062845337</v>
-      </c>
-      <c r="D36" s="33">
-        <f t="shared" si="24"/>
         <v>3.7524613666705231E-2</v>
       </c>
-      <c r="E36" s="63" t="str">
+      <c r="E36" s="60" t="str">
         <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>click_flights</v>
       </c>
@@ -3650,8 +3769,24 @@
         <f t="shared" si="26"/>
         <v>-2.5537930836418754E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I36" s="60">
+        <f>VLOOKUP(E36,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>421</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="27"/>
+        <v>-3.6143171130749163E-3</v>
+      </c>
+      <c r="K36" s="65">
+        <f>VLOOKUP(E36,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>1251</v>
+      </c>
+      <c r="L36" s="29">
+        <f t="shared" si="28"/>
+        <v>2.4780175859312581E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>11</v>
       </c>
@@ -3659,14 +3794,14 @@
         <v>282</v>
       </c>
       <c r="C37" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>269.52279957582181</v>
       </c>
       <c r="D37" s="29">
-        <f t="shared" ref="D37:D46" si="27">1-B37/C37</f>
+        <f t="shared" ref="D37:D46" si="29">1-B37/C37</f>
         <v>-4.6293673276676328E-2</v>
       </c>
-      <c r="E37" s="63" t="str">
+      <c r="E37" s="60" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>goto_flights</v>
       </c>
@@ -3682,8 +3817,24 @@
         <f t="shared" si="26"/>
         <v>-2.0919695362961344E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I37" s="60">
+        <f>VLOOKUP(E37,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>359</v>
+      </c>
+      <c r="J37" s="29">
+        <f t="shared" si="27"/>
+        <v>-1.013183197109857E-3</v>
+      </c>
+      <c r="K37" s="65">
+        <f>VLOOKUP(E37,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>1081</v>
+      </c>
+      <c r="L37" s="29">
+        <f t="shared" si="28"/>
+        <v>-4.3478260869565188E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>12</v>
       </c>
@@ -3691,14 +3842,14 @@
         <v>270</v>
       </c>
       <c r="C38" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>269.52279957582181</v>
       </c>
       <c r="D38" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.770538243626163E-3</v>
       </c>
-      <c r="E38" s="63" t="str">
+      <c r="E38" s="60" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>find_flights</v>
       </c>
@@ -3714,8 +3865,24 @@
         <f t="shared" si="26"/>
         <v>-2.0919695362961344E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="I38" s="60">
+        <f>VLOOKUP(E38,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>359</v>
+      </c>
+      <c r="J38" s="29">
+        <f t="shared" si="27"/>
+        <v>-1.013183197109857E-3</v>
+      </c>
+      <c r="K38" s="65">
+        <f>VLOOKUP(E38,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>1079</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="28"/>
+        <v>-9.26784059314123E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>3</v>
       </c>
@@ -3723,14 +3890,14 @@
         <v>175</v>
       </c>
       <c r="C39" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>175.60975609756096</v>
       </c>
       <c r="D39" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.4722222222220989E-3</v>
       </c>
-      <c r="E39" s="63" t="str">
+      <c r="E39" s="60" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>payment_details</v>
       </c>
@@ -3746,8 +3913,24 @@
         <f t="shared" si="26"/>
         <v>7.854485324514382E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I39" s="60">
+        <f>VLOOKUP(E39,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>233</v>
+      </c>
+      <c r="J39" s="29">
+        <f t="shared" si="27"/>
+        <v>-4.9199204438394872E-3</v>
+      </c>
+      <c r="K39" s="65">
+        <f>VLOOKUP(E39,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>703</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="28"/>
+        <v>4.2674253200568613E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>4</v>
       </c>
@@ -3755,14 +3938,14 @@
         <v>280</v>
       </c>
       <c r="C40" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>277.71428571428572</v>
       </c>
       <c r="D40" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-8.2304526748970819E-3</v>
       </c>
-      <c r="E40" s="63" t="str">
+      <c r="E40" s="60" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>goto_itinerary</v>
       </c>
@@ -3778,8 +3961,24 @@
         <f t="shared" si="26"/>
         <v>-6.2111801242235032E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I40" s="60">
+        <f>VLOOKUP(E40,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>373</v>
+      </c>
+      <c r="J40" s="29">
+        <f t="shared" si="27"/>
+        <v>7.2769054002298494E-3</v>
+      </c>
+      <c r="K40" s="65">
+        <f>VLOOKUP(E40,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>1106</v>
+      </c>
+      <c r="L40" s="29">
+        <f t="shared" si="28"/>
+        <v>-1.2658227848101333E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
         <v>13</v>
       </c>
@@ -3787,14 +3986,14 @@
         <v>73</v>
       </c>
       <c r="C41" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="D41" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="E41" s="63" t="str">
+      <c r="E41" s="60" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>delete_ticket</v>
       </c>
@@ -3810,8 +4009,24 @@
         <f t="shared" si="26"/>
         <v>-4.3478260869565188E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="I41" s="60">
+        <f>VLOOKUP(E41,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="J41" s="29">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="65">
+        <f>VLOOKUP(E41,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>285</v>
+      </c>
+      <c r="L41" s="29">
+        <f t="shared" si="28"/>
+        <v>-2.4561403508772006E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>6</v>
       </c>
@@ -3819,14 +4034,14 @@
         <v>326</v>
       </c>
       <c r="C42" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>325.83532000733533</v>
       </c>
       <c r="D42" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-5.0540866061110634E-4</v>
       </c>
-      <c r="E42" s="63" t="str">
+      <c r="E42" s="60" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>log_out</v>
       </c>
@@ -3842,8 +4057,24 @@
         <f t="shared" si="26"/>
         <v>-5.6645679238744862E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="I42" s="60">
+        <f>VLOOKUP(E42,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>430</v>
+      </c>
+      <c r="J42" s="29">
+        <f t="shared" si="27"/>
+        <v>-1.0342077542125017E-2</v>
+      </c>
+      <c r="K42" s="65">
+        <f>VLOOKUP(E42,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>1284</v>
+      </c>
+      <c r="L42" s="29">
+        <f t="shared" si="28"/>
+        <v>-1.5576323987538832E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>66</v>
       </c>
@@ -3851,14 +4082,14 @@
         <v>97</v>
       </c>
       <c r="C43" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>94.736842105263165</v>
       </c>
       <c r="D43" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.3888888888888848E-2</v>
       </c>
-      <c r="E43" s="63" t="str">
+      <c r="E43" s="60" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>click_signUp</v>
       </c>
@@ -3874,9 +4105,24 @@
         <f t="shared" si="26"/>
         <v>1.3157894736842035E-2</v>
       </c>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I43" s="60">
+        <f>VLOOKUP(E43,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="J43" s="29">
+        <f t="shared" si="27"/>
+        <v>-2.5062656641605674E-3</v>
+      </c>
+      <c r="K43" s="65">
+        <f>VLOOKUP(E43,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>377</v>
+      </c>
+      <c r="L43" s="29">
+        <f t="shared" si="28"/>
+        <v>-2.917771883289122E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>65</v>
       </c>
@@ -3884,14 +4130,14 @@
         <v>97</v>
       </c>
       <c r="C44" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>94.736842105263165</v>
       </c>
       <c r="D44" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.3888888888888848E-2</v>
       </c>
-      <c r="E44" s="63" t="str">
+      <c r="E44" s="60" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>customerProfile</v>
       </c>
@@ -3907,8 +4153,24 @@
         <f t="shared" si="26"/>
         <v>1.3157894736842035E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="I44" s="60">
+        <f>VLOOKUP(E44,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>127</v>
+      </c>
+      <c r="J44" s="29">
+        <f t="shared" si="27"/>
+        <v>5.3874844591793591E-3</v>
+      </c>
+      <c r="K44" s="65">
+        <f>VLOOKUP(E44,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>378</v>
+      </c>
+      <c r="L44" s="29">
+        <f t="shared" si="28"/>
+        <v>-2.6455026455026509E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>67</v>
       </c>
@@ -3916,14 +4178,14 @@
         <v>97</v>
       </c>
       <c r="C45" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>94.736842105263165</v>
       </c>
       <c r="D45" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.3888888888888848E-2</v>
       </c>
-      <c r="E45" s="63" t="str">
+      <c r="E45" s="60" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>continue</v>
       </c>
@@ -3939,12 +4201,24 @@
         <f t="shared" si="26"/>
         <v>1.3157894736842035E-2</v>
       </c>
-      <c r="I45" s="37">
-        <f>1-B50/H50</f>
-        <v>0.22499999999999987</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="60">
+        <f>VLOOKUP(E45,SummaryReportMax!A:J,8,FALSE)</f>
+        <v>127</v>
+      </c>
+      <c r="J45" s="29">
+        <f t="shared" si="27"/>
+        <v>5.3874844591793591E-3</v>
+      </c>
+      <c r="K45" s="65">
+        <f>VLOOKUP(E45,SummaryReportConfirmMax!A:J,8,FALSE)</f>
+        <v>377</v>
+      </c>
+      <c r="L45" s="29">
+        <f t="shared" si="28"/>
+        <v>-2.917771883289122E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
         <v>7</v>
       </c>
@@ -3957,25 +4231,19 @@
         <v>2974.8034348862616</v>
       </c>
       <c r="D46" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0354779924287461E-2</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="37">
-        <f>1-B51/H51</f>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I47" s="37">
-        <f>1-B52/H52</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C48" s="39" t="s">
         <v>78</v>
       </c>
@@ -3984,12 +4252,12 @@
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
-      <c r="I48" s="37">
-        <f>1-B53/H53</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="37">
+        <f>1-B50/H50</f>
+        <v>0.22499999999999987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>77</v>
       </c>
@@ -4005,12 +4273,12 @@
       <c r="G49" t="s">
         <v>76</v>
       </c>
-      <c r="I49" s="37">
-        <f>1-B54/H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="37">
+        <f>1-B51/H51</f>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -4040,8 +4308,12 @@
         <f>G50*D50*E50</f>
         <v>53.333333333333329</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="37">
+        <f>1-B52/H52</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -4053,7 +4325,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="40">
-        <f t="shared" ref="D51:D54" si="28">60/C51</f>
+        <f t="shared" ref="D51:D54" si="30">60/C51</f>
         <v>3</v>
       </c>
       <c r="E51" s="40">
@@ -4064,15 +4336,19 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G54" si="29">ROUND(F51,0)</f>
+        <f t="shared" ref="G51:G54" si="31">ROUND(F51,0)</f>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51:H54" si="30">G51*D51*E51</f>
+        <f t="shared" ref="H51:H54" si="32">G51*D51*E51</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="37">
+        <f>1-B53/H53</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -4084,7 +4360,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="E52" s="40">
@@ -4098,11 +4374,15 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="37">
+        <f>1-B54/H54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4114,7 +4394,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="E53" s="40">
@@ -4128,11 +4408,11 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -4144,7 +4424,7 @@
         <v>30</v>
       </c>
       <c r="D54" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="E54" s="40">
@@ -4155,11 +4435,11 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="H54">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
     </row>
@@ -4168,7 +4448,8 @@
     <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4177,7 +4458,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4187,10 +4468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4324,7 +4605,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4333,69 +4614,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="69" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="62">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="62">
         <v>0.50600000000000001</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="62">
         <v>0.68</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="62">
         <v>0.09</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="62">
         <v>0.61499999999999999</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="62">
         <v>176</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="62">
         <v>2</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="62">
         <v>0</v>
       </c>
       <c r="K2" s="37">
@@ -4404,34 +4685,34 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="62">
         <v>9.4E-2</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="62">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="62">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="62">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="62">
         <v>103</v>
       </c>
-      <c r="I3" s="66">
-        <v>0</v>
-      </c>
-      <c r="J3" s="66">
+      <c r="I3" s="62">
+        <v>0</v>
+      </c>
+      <c r="J3" s="62">
         <v>0</v>
       </c>
       <c r="K3" s="37">
@@ -4440,34 +4721,34 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="62">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="62">
         <v>0.06</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="62">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="62">
         <v>0.01</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="62">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="62">
         <v>32</v>
       </c>
-      <c r="I4" s="66">
-        <v>0</v>
-      </c>
-      <c r="J4" s="66">
+      <c r="I4" s="62">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62">
         <v>0</v>
       </c>
       <c r="K4" s="37">
@@ -4476,34 +4757,34 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="62">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="62">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="62">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="62">
         <v>0.01</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="62">
         <v>0.111</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="62">
         <v>32</v>
       </c>
-      <c r="I5" s="66">
-        <v>0</v>
-      </c>
-      <c r="J5" s="66">
+      <c r="I5" s="62">
+        <v>0</v>
+      </c>
+      <c r="J5" s="62">
         <v>0</v>
       </c>
       <c r="K5" s="37">
@@ -4512,34 +4793,34 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="62">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="62">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="62">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="62">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="62">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="62">
         <v>32</v>
       </c>
-      <c r="I6" s="66">
-        <v>0</v>
-      </c>
-      <c r="J6" s="66">
+      <c r="I6" s="62">
+        <v>0</v>
+      </c>
+      <c r="J6" s="62">
         <v>0</v>
       </c>
       <c r="K6" s="37">
@@ -4548,34 +4829,34 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="62">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="62">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="62">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="62">
         <v>1.2E-2</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="62">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="62">
         <v>23</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="62">
         <v>1</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="62">
         <v>0</v>
       </c>
       <c r="K7" s="37">
@@ -4584,34 +4865,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="62">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="62">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="62">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="62">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="62">
         <v>0.127</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="62">
         <v>88</v>
       </c>
-      <c r="I8" s="66">
-        <v>0</v>
-      </c>
-      <c r="J8" s="66">
+      <c r="I8" s="62">
+        <v>0</v>
+      </c>
+      <c r="J8" s="62">
         <v>0</v>
       </c>
       <c r="K8" s="37">
@@ -4620,34 +4901,34 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="62">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="62">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="62">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="62">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="62">
         <v>88</v>
       </c>
-      <c r="I9" s="66">
-        <v>0</v>
-      </c>
-      <c r="J9" s="66">
+      <c r="I9" s="62">
+        <v>0</v>
+      </c>
+      <c r="J9" s="62">
         <v>0</v>
       </c>
       <c r="K9" s="37">
@@ -4656,34 +4937,34 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="62">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="62">
         <v>0.122</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="62">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="62">
         <v>2.4E-2</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="62">
         <v>0.157</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="62">
         <v>92</v>
       </c>
-      <c r="I10" s="66">
-        <v>0</v>
-      </c>
-      <c r="J10" s="66">
+      <c r="I10" s="62">
+        <v>0</v>
+      </c>
+      <c r="J10" s="62">
         <v>0</v>
       </c>
       <c r="K10" s="37">
@@ -4692,34 +4973,34 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="62">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="62">
         <v>0.09</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="62">
         <v>0.13400000000000001</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="62">
         <v>1.2E-2</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="62">
         <v>0.108</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="62">
         <v>108</v>
       </c>
-      <c r="I11" s="66">
-        <v>0</v>
-      </c>
-      <c r="J11" s="66">
+      <c r="I11" s="62">
+        <v>0</v>
+      </c>
+      <c r="J11" s="62">
         <v>0</v>
       </c>
       <c r="K11" s="37">
@@ -4728,34 +5009,34 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="62">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="62">
         <v>0.108</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="62">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="62">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="62">
         <v>0.127</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="62">
         <v>146</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="62">
         <v>1</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="62">
         <v>0</v>
       </c>
       <c r="K12" s="37">
@@ -4764,34 +5045,34 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="62">
         <v>7.8E-2</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="62">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="62">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="62">
         <v>1.4E-2</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="62">
         <v>0.106</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="62">
         <v>178</v>
       </c>
-      <c r="I13" s="66">
-        <v>0</v>
-      </c>
-      <c r="J13" s="66">
+      <c r="I13" s="62">
+        <v>0</v>
+      </c>
+      <c r="J13" s="62">
         <v>0</v>
       </c>
       <c r="K13" s="37">
@@ -4800,34 +5081,34 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="62">
         <v>0.05</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="62">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="62">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="62">
         <v>1.2E-2</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="62">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="62">
         <v>59</v>
       </c>
-      <c r="I14" s="66">
-        <v>0</v>
-      </c>
-      <c r="J14" s="66">
+      <c r="I14" s="62">
+        <v>0</v>
+      </c>
+      <c r="J14" s="62">
         <v>0</v>
       </c>
       <c r="K14" s="37">
@@ -4836,34 +5117,34 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="62">
         <v>0.52800000000000002</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="62">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="62">
         <v>0.67900000000000005</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="62">
         <v>3.9E-2</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="62">
         <v>0.65400000000000003</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="62">
         <v>58</v>
       </c>
-      <c r="I15" s="66">
-        <v>0</v>
-      </c>
-      <c r="J15" s="66">
+      <c r="I15" s="62">
+        <v>0</v>
+      </c>
+      <c r="J15" s="62">
         <v>0</v>
       </c>
       <c r="K15" s="37">
@@ -4872,34 +5153,34 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="62">
         <v>0.35699999999999998</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="62">
         <v>0.41</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="62">
         <v>0.47899999999999998</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="62">
         <v>0.03</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="62">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="62">
         <v>23</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="62">
         <v>1</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="62">
         <v>0</v>
       </c>
       <c r="K16" s="37">
@@ -4908,34 +5189,34 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="62">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="62">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="62">
         <v>0.55500000000000005</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="62">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="62">
         <v>0.47899999999999998</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="62">
         <v>32</v>
       </c>
-      <c r="I17" s="66">
-        <v>0</v>
-      </c>
-      <c r="J17" s="66">
+      <c r="I17" s="62">
+        <v>0</v>
+      </c>
+      <c r="J17" s="62">
         <v>0</v>
       </c>
       <c r="K17" s="37">
@@ -4944,34 +5225,34 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="62">
         <v>0.47299999999999998</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="62">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="62">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="62">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="62">
         <v>0.58099999999999996</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="62">
         <v>34</v>
       </c>
-      <c r="I18" s="66">
-        <v>0</v>
-      </c>
-      <c r="J18" s="66">
+      <c r="I18" s="62">
+        <v>0</v>
+      </c>
+      <c r="J18" s="62">
         <v>0</v>
       </c>
       <c r="K18" s="37">
@@ -4980,34 +5261,34 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="62">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="62">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="62">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="62">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="62">
         <v>0.53500000000000003</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="62">
         <v>29</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="62">
         <v>1</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="62">
         <v>0</v>
       </c>
       <c r="K19" s="37">
@@ -5021,6 +5302,1441 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7345E010-CCC3-4308-82B2-16B220A3A902}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="64">
+        <v>10.458</v>
+      </c>
+      <c r="D2" s="64">
+        <v>18.771000000000001</v>
+      </c>
+      <c r="E2" s="64">
+        <v>26.972000000000001</v>
+      </c>
+      <c r="F2" s="64">
+        <v>6.4189999999999996</v>
+      </c>
+      <c r="G2" s="64">
+        <v>23.128</v>
+      </c>
+      <c r="H2" s="64">
+        <v>722</v>
+      </c>
+      <c r="I2" s="64">
+        <v>3</v>
+      </c>
+      <c r="J2" s="64">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37">
+        <f>I2/(H2+I2+J2)</f>
+        <v>4.1379310344827587E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="64">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D3" s="64">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E3" s="64">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="F3" s="64">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G3" s="64">
+        <v>0.189</v>
+      </c>
+      <c r="H3" s="64">
+        <v>421</v>
+      </c>
+      <c r="I3" s="64">
+        <v>2</v>
+      </c>
+      <c r="J3" s="64">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" ref="K3:K20" si="0">I3/(H3+I3+J3)</f>
+        <v>4.7281323877068557E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="64">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0.108</v>
+      </c>
+      <c r="E4" s="64">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="F4" s="64">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G4" s="64">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H4" s="64">
+        <v>126</v>
+      </c>
+      <c r="I4" s="64">
+        <v>0</v>
+      </c>
+      <c r="J4" s="64">
+        <v>0</v>
+      </c>
+      <c r="K4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="64">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D5" s="64">
+        <v>0.191</v>
+      </c>
+      <c r="E5" s="64">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="F5" s="64">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G5" s="64">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H5" s="64">
+        <v>127</v>
+      </c>
+      <c r="I5" s="64">
+        <v>0</v>
+      </c>
+      <c r="J5" s="64">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="64">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D6" s="64">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6" s="64">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F6" s="64">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G6" s="64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6" s="64">
+        <v>127</v>
+      </c>
+      <c r="I6" s="64">
+        <v>0</v>
+      </c>
+      <c r="J6" s="64">
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="64">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0.66</v>
+      </c>
+      <c r="F7" s="64">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="64">
+        <v>0.114</v>
+      </c>
+      <c r="H7" s="64">
+        <v>96</v>
+      </c>
+      <c r="I7" s="64">
+        <v>0</v>
+      </c>
+      <c r="J7" s="64">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="64">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D8" s="64">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F8" s="64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G8" s="64">
+        <v>0.108</v>
+      </c>
+      <c r="H8" s="64">
+        <v>359</v>
+      </c>
+      <c r="I8" s="64">
+        <v>0</v>
+      </c>
+      <c r="J8" s="64">
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="64">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D9" s="64">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0.109</v>
+      </c>
+      <c r="F9" s="64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G9" s="64">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H9" s="64">
+        <v>359</v>
+      </c>
+      <c r="I9" s="64">
+        <v>0</v>
+      </c>
+      <c r="J9" s="64">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="64">
+        <v>0.109</v>
+      </c>
+      <c r="D10" s="64">
+        <v>0.155</v>
+      </c>
+      <c r="E10" s="64">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="F10" s="64">
+        <v>0.126</v>
+      </c>
+      <c r="G10" s="64">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H10" s="64">
+        <v>373</v>
+      </c>
+      <c r="I10" s="64">
+        <v>0</v>
+      </c>
+      <c r="J10" s="64">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="64">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D11" s="64">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E11" s="64">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="F11" s="64">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G11" s="64">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H11" s="64">
+        <v>430</v>
+      </c>
+      <c r="I11" s="64">
+        <v>0</v>
+      </c>
+      <c r="J11" s="64">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="64">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D12" s="64">
+        <v>0.185</v>
+      </c>
+      <c r="E12" s="64">
+        <v>2.403</v>
+      </c>
+      <c r="F12" s="64">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G12" s="64">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H12" s="64">
+        <v>596</v>
+      </c>
+      <c r="I12" s="64">
+        <v>0</v>
+      </c>
+      <c r="J12" s="64">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="64">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D13" s="64">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E13" s="64">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="F13" s="64">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G13" s="64">
+        <v>0.377</v>
+      </c>
+      <c r="H13" s="64">
+        <v>722</v>
+      </c>
+      <c r="I13" s="64">
+        <v>0</v>
+      </c>
+      <c r="J13" s="64">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="64">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1.115</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0.182</v>
+      </c>
+      <c r="G14" s="64">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H14" s="64">
+        <v>233</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0</v>
+      </c>
+      <c r="J14" s="64">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="64">
+        <v>25.576000000000001</v>
+      </c>
+      <c r="D15" s="64">
+        <v>25.904</v>
+      </c>
+      <c r="E15" s="64">
+        <v>28.14</v>
+      </c>
+      <c r="F15" s="64">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G15" s="64">
+        <v>26.809000000000001</v>
+      </c>
+      <c r="H15" s="64">
+        <v>234</v>
+      </c>
+      <c r="I15" s="64">
+        <v>0</v>
+      </c>
+      <c r="J15" s="64">
+        <v>0</v>
+      </c>
+      <c r="K15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="64">
+        <v>20.428000000000001</v>
+      </c>
+      <c r="D16" s="64">
+        <v>20.719000000000001</v>
+      </c>
+      <c r="E16" s="64">
+        <v>23.821999999999999</v>
+      </c>
+      <c r="F16" s="64">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="G16" s="64">
+        <v>21.398</v>
+      </c>
+      <c r="H16" s="64">
+        <v>96</v>
+      </c>
+      <c r="I16" s="64">
+        <v>0</v>
+      </c>
+      <c r="J16" s="64">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="64">
+        <v>20.297999999999998</v>
+      </c>
+      <c r="D17" s="64">
+        <v>20.696000000000002</v>
+      </c>
+      <c r="E17" s="64">
+        <v>23.067</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G17" s="64">
+        <v>21.353000000000002</v>
+      </c>
+      <c r="H17" s="64">
+        <v>127</v>
+      </c>
+      <c r="I17" s="64">
+        <v>0</v>
+      </c>
+      <c r="J17" s="64">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="64">
+        <v>10.484999999999999</v>
+      </c>
+      <c r="D18" s="64">
+        <v>10.904999999999999</v>
+      </c>
+      <c r="E18" s="64">
+        <v>14.586</v>
+      </c>
+      <c r="F18" s="64">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G18" s="64">
+        <v>11.663</v>
+      </c>
+      <c r="H18" s="64">
+        <v>139</v>
+      </c>
+      <c r="I18" s="64">
+        <v>0</v>
+      </c>
+      <c r="J18" s="64">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="64">
+        <v>10.436999999999999</v>
+      </c>
+      <c r="D19" s="64">
+        <v>10.71</v>
+      </c>
+      <c r="E19" s="64">
+        <v>12.618</v>
+      </c>
+      <c r="F19" s="64">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G19" s="64">
+        <v>11.478</v>
+      </c>
+      <c r="H19" s="64">
+        <v>125</v>
+      </c>
+      <c r="I19" s="64">
+        <v>3</v>
+      </c>
+      <c r="J19" s="64">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="0"/>
+        <v>2.34375E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="64">
+        <v>0</v>
+      </c>
+      <c r="D20" s="64">
+        <v>0</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0</v>
+      </c>
+      <c r="F20" s="64">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64">
+        <v>0</v>
+      </c>
+      <c r="H20" s="64">
+        <v>8</v>
+      </c>
+      <c r="I20" s="64">
+        <v>0</v>
+      </c>
+      <c r="J20" s="64">
+        <v>0</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDBB441-786A-4E1C-97DE-C4DC084A4394}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0.27</v>
+      </c>
+      <c r="D2">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E2">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.752</v>
+      </c>
+      <c r="H2" s="15">
+        <v>2150</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37">
+        <f>I2/(H2+I2+J2)</f>
+        <v>2.7829313543599257E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.752</v>
+      </c>
+      <c r="F3">
+        <v>0.111</v>
+      </c>
+      <c r="G3">
+        <v>0.158</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1251</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" ref="K3:K19" si="0">I3/(H3+I3+J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>377</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="37">
+        <f t="shared" si="0"/>
+        <v>2.6455026455026454E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.12</v>
+      </c>
+      <c r="E5">
+        <v>0.81</v>
+      </c>
+      <c r="F5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.13</v>
+      </c>
+      <c r="H5" s="15">
+        <v>377</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.113</v>
+      </c>
+      <c r="F6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>378</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>285</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
+        <f t="shared" si="0"/>
+        <v>6.9686411149825784E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.161</v>
+      </c>
+      <c r="F8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.126</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1079</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1081</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.159</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1106</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.105</v>
+      </c>
+      <c r="E11">
+        <v>0.496</v>
+      </c>
+      <c r="F11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.129</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1284</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" si="0"/>
+        <v>7.7821011673151756E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.122</v>
+      </c>
+      <c r="E12">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1776</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="0"/>
+        <v>5.6274620146314015E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.115</v>
+      </c>
+      <c r="E13">
+        <v>1.929</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2159</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.431</v>
+      </c>
+      <c r="F14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.104</v>
+      </c>
+      <c r="H14" s="15">
+        <v>703</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="0"/>
+        <v>1.4204545454545455E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.751</v>
+      </c>
+      <c r="E15">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H15" s="15">
+        <v>700</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="37">
+        <f t="shared" si="0"/>
+        <v>2.8490028490028491E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E16">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.105</v>
+      </c>
+      <c r="G16">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H16" s="15">
+        <v>285</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>0.27</v>
+      </c>
+      <c r="D17">
+        <v>0.435</v>
+      </c>
+      <c r="E17">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H17" s="15">
+        <v>378</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" si="0"/>
+        <v>2.6385224274406332E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E18">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H18" s="15">
+        <v>411</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.125</v>
+      </c>
+      <c r="G19">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H19" s="15">
+        <v>376</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C9:O44"/>
   <sheetViews>
@@ -5047,13 +6763,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="11" spans="5:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -5206,13 +6922,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="8" t="s">
@@ -5372,13 +7088,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">
